--- a/simple_test_protocol.xlsx
+++ b/simple_test_protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab\Desktop\ph-meter-interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC335E9-6D62-4FFD-A269-2C86145A0037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB232CE-6D7E-4C10-8418-B31B9E4839E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Pump</t>
   </si>
@@ -51,10 +51,7 @@
     <t>Force delay</t>
   </si>
   <si>
-    <t>F.0.1.21_1</t>
-  </si>
-  <si>
-    <t>F.0.1.13_2</t>
+    <t>F.0.1.13_1</t>
   </si>
 </sst>
 </file>
@@ -182,8 +179,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -532,7 +529,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -593,7 +590,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -604,17 +601,17 @@
       <c r="D2" s="11">
         <v>1440</v>
       </c>
-      <c r="E2" s="12">
-        <v>7.2</v>
-      </c>
-      <c r="F2" s="12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="E2" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="F2" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="G2" s="12">
         <v>100</v>
       </c>
-      <c r="H2" s="13">
-        <v>1.2</v>
+      <c r="H2" s="12">
+        <v>0.12</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -643,28 +640,28 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="11">
         <v>1440</v>
       </c>
-      <c r="E3" s="12">
-        <v>7.2</v>
-      </c>
-      <c r="F3" s="12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G3" s="13">
-        <v>10</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0.5</v>
+      <c r="E3" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="F3" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="G3" s="12">
+        <v>100</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.12</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -692,14 +689,30 @@
       <c r="AF3"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="8">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1440</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="F4" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="G4" s="12">
+        <v>100</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.12</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -730,10 +743,10 @@
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -764,10 +777,10 @@
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -794,6 +807,14 @@
       <c r="AF6"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
